--- a/Cahier_de_recette.xlsx
+++ b/Cahier_de_recette.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Desktop\Gestion_Produit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Gestion_Produit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098D9A6B-812E-477D-8C38-A5CC3936CB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3702038-FB09-4635-844B-2C4EBB69FA8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{B6D41ED1-EFBB-4023-8BA8-F33B057EEA8A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" activeTab="2" xr2:uid="{B6D41ED1-EFBB-4023-8BA8-F33B057EEA8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sprint 4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="75">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -214,6 +216,53 @@
   </si>
   <si>
     <t>Affichage des détails de ce client dans la page détails</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Affichage de l'ensemble des devis dans un tableau</t>
+  </si>
+  <si>
+    <t>L'utilisateur clique sur un devis dans le tableau</t>
+  </si>
+  <si>
+    <t>Affichage des détails de ce devis dans la page devis</t>
+  </si>
+  <si>
+    <t>Le tableau contenant la liste des devis s'actualise</t>
+  </si>
+  <si>
+    <t>Ajout du devis dans la base de données et actualisation du tableau</t>
+  </si>
+  <si>
+    <t>Affichage d'un message d'erreur et échec de l'insertion du devis</t>
+  </si>
+  <si>
+    <t>L'utilisateur sélectionne un devis et appuie sur le bouton "supprimer"</t>
+  </si>
+  <si>
+    <t>L'utilisateur appuie sur le bouton "non" pour annuler la suppression du devis</t>
+  </si>
+  <si>
+    <t>L'utilisateur appuie sur le bouton "oui" pour confirmer la suppression d'un devis</t>
+  </si>
+  <si>
+    <t>Suppression du devis et actualisation du formulaire</t>
+  </si>
+  <si>
+    <t>L'utilisateur sélectionne un devis et modifie tous les champs
+ en les remplissant avec des données correctes puis appuie sur le bouton "modifier"</t>
+  </si>
+  <si>
+    <t>L'utilisateur laisse une ou plusieurs valeurs nulles lors de la modification d'un devis</t>
+  </si>
+  <si>
+    <t>Modification du devis dans la base de données et actualisation du formulaire</t>
+  </si>
+  <si>
+    <t>Affichage d'un message d'erreur et échec de la modification du devis,
+puis actualisation du formulaire</t>
   </si>
 </sst>
 </file>
@@ -288,7 +337,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -302,17 +351,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -634,31 +686,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D6D9F0A-8DE8-4F38-8216-7DF64FD20240}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.36328125" customWidth="1"/>
-    <col min="3" max="3" width="23.81640625" customWidth="1"/>
-    <col min="5" max="5" width="75.90625" customWidth="1"/>
-    <col min="6" max="6" width="68.36328125" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" customWidth="1"/>
+    <col min="5" max="5" width="75.88671875" customWidth="1"/>
+    <col min="6" max="6" width="68.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -684,14 +736,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="8">
         <v>44880</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -710,12 +762,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="6"/>
       <c r="E4" s="1" t="s">
         <v>22</v>
@@ -730,12 +782,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="6"/>
       <c r="E5" s="1" t="s">
         <v>24</v>
@@ -750,12 +802,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="6"/>
       <c r="E6" s="1" t="s">
         <v>23</v>
@@ -770,14 +822,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="8">
         <v>44882</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -796,12 +848,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="6"/>
       <c r="E8" s="1" t="s">
         <v>40</v>
@@ -816,12 +868,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="6"/>
       <c r="E9" s="1" t="s">
         <v>43</v>
@@ -836,14 +888,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="5" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -856,12 +908,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="6"/>
       <c r="E11" s="1" t="s">
         <v>45</v>
@@ -876,20 +928,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="8">
         <v>44882</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -902,17 +954,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="6"/>
       <c r="E13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="5" t="s">
         <v>38</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -922,14 +974,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -942,14 +994,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="5" t="s">
         <v>48</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -962,17 +1014,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="5" t="s">
         <v>35</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -982,17 +1034,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -1004,16 +1056,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="D7:D11"/>
     <mergeCell ref="D12:D17"/>
     <mergeCell ref="C12:C17"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="C7:C11"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="D7:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1024,32 +1076,32 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
-    <col min="3" max="3" width="21.26953125" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" customWidth="1"/>
-    <col min="5" max="5" width="72.7265625" customWidth="1"/>
-    <col min="6" max="6" width="70.1796875" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="72.77734375" customWidth="1"/>
+    <col min="6" max="6" width="70.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1075,14 +1127,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="8">
         <v>44889</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -1101,12 +1153,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="6"/>
       <c r="E4" s="1" t="s">
         <v>58</v>
@@ -1121,12 +1173,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="6"/>
       <c r="E5" s="1" t="s">
         <v>43</v>
@@ -1141,14 +1193,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="5" t="s">
         <v>44</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1161,12 +1213,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="6"/>
       <c r="E7" s="1" t="s">
         <v>45</v>
@@ -1181,20 +1233,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="8">
         <v>44889</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>56</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1207,17 +1259,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="6"/>
       <c r="E9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="5" t="s">
         <v>57</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -1227,20 +1279,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="8">
         <v>44889</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1253,14 +1305,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="5" t="s">
         <v>53</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1273,17 +1325,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="5" t="s">
         <v>33</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -1293,17 +1345,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="5" t="s">
         <v>34</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -1313,40 +1365,363 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E20" s="8"/>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E20" s="5"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="C10:C13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EF4335-5120-4836-8BEF-A0B0E32D8A14}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="72.77734375" customWidth="1"/>
+    <col min="6" max="6" width="70.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>44902</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8">
+        <v>44903</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8">
+        <v>44903</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E19" s="5"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="D3:D7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F44292-7415-401C-99B6-AFCE08E88CC9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>